--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>ad5fc8b706e03d9acdcdb39ed8eb777ecdacd6b6</t>
+    <t>f9c7cd587ea5dbdcac12cdfd4b3eb75e0078bd20</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,8 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add test cases for Windows
-</t>
+    <t>Create index.html</t>
   </si>
   <si>
     <t/>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>f9c7cd587ea5dbdcac12cdfd4b3eb75e0078bd20</t>
+    <t>5f4c119493ac0b61b0e7d7a6e8aa7792143a27e8</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t>Create index.html</t>
+    <t>Update config.properties</t>
   </si>
   <si>
     <t/>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>5f4c119493ac0b61b0e7d7a6e8aa7792143a27e8</t>
+    <t>663b0b0eda54f28a7bc5d971bae635f07715d49d</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,8 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t>Update config.properties</t>
+    <t xml:space="preserve">- Upload automation test result for windows
+</t>
   </si>
   <si>
     <t/>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>663b0b0eda54f28a7bc5d971bae635f07715d49d</t>
+    <t>786fb496f760e8474ef7ccecb15c8a42b8cdefe3</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,14 +112,11 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload automation test result for windows
+    <t xml:space="preserve">- Upload window manual test results
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Run mvn test.</t>
@@ -680,19 +677,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44421.58804398148</v>
+        <v>44551.58804398148</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,19 +725,19 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>786fb496f760e8474ef7ccecb15c8a42b8cdefe3</t>
+    <t>4d7fb175c595a42fe0abca7a65c400731b36834a</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload window manual test results
+    <t xml:space="preserve">- Update library
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>4d7fb175c595a42fe0abca7a65c400731b36834a</t>
+    <t>32630470579b9060070e31993b705daf4d6df709</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Update library
+    <t xml:space="preserve">- Add windows manual test cases
 </t>
   </si>
   <si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Test run successfully and chromewebdriver.exe is the lastest version</t>
+  </si>
+  <si>
+    <t>As expected: chromewebdriver.exe is the lastes version</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>31</v>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>32630470579b9060070e31993b705daf4d6df709</t>
+    <t>0c8c98ee0733418218920e89621b763eddbbd0ae</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add windows manual test cases
+    <t xml:space="preserve">- Upload more window manual test results
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44551.58804398148</v>
+        <v>44551.62971064815</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>0c8c98ee0733418218920e89621b763eddbbd0ae</t>
+    <t>eb5c5ec6364d8a61cdca45c2d468b2ffad8d1f2e</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload more window manual test results
+    <t xml:space="preserve">- Add basic windows automation test cases
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>eb5c5ec6364d8a61cdca45c2d468b2ffad8d1f2e</t>
+    <t>b4c1dabc1d763280ec45ac243bb8324b89e822aa</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add basic windows automation test cases
+    <t xml:space="preserve">- upload window automation basic test results
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>b4c1dabc1d763280ec45ac243bb8324b89e822aa</t>
+    <t>8e42920a300cd254763b6c7194cbbe494957a259</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- upload window automation basic test results
+    <t xml:space="preserve">- Upload test case for MAC OS
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>8e42920a300cd254763b6c7194cbbe494957a259</t>
+    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test case for MAC OS
+    <t xml:space="preserve">- Upload test results for MAC OS
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
+    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test results for MAC OS
+    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
+    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
+    <t xml:space="preserve">- Add Linux test results
 </t>
   </si>
   <si>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
+    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,8 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add Linux test results
-</t>
+    <t>Delete advance.md</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/Windows/manual/ChromeManualTest.xlsx
+++ b/Reports/Windows/manual/ChromeManualTest.xlsx
@@ -102,7 +102,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
+    <t>76ebaf2b7f0ed251d3b47f8a6ef279cd00691a08</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -112,7 +112,7 @@
     <t>Webdriver and corresponding chrome browser must close successfully.</t>
   </si>
   <si>
-    <t>Delete advance.md</t>
+    <t>Update README.md</t>
   </si>
   <si>
     <t>Pass</t>
